--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3842.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3842.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3842</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Usman T Khawaja</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -959,7 +1024,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1435,7 +1499,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1487,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1539,7 +1603,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1903,7 +1967,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1955,7 +2019,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2007,7 +2071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,7 +2123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2111,7 +2175,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2163,7 +2227,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2215,7 +2279,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2267,7 +2331,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2319,7 +2383,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2371,7 +2435,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2423,7 +2487,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2475,7 +2539,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2527,7 +2591,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2558,6 +2622,611 @@
       <c r="J41" t="inlineStr">
         <is>
           <t>14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14.78%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15.70%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.23%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.35%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.76%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.54%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.88%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.97%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.18%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.51%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13.29%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8.07%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.21%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.71%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3842.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3842.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3842.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3842.xlsx
@@ -2636,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2679,7 +2679,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4236</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14.78%</t>
+          <t>0.98%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2709,13 +2709,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4258</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>3471</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>11.27%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2725,7 +2739,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2733,7 +2747,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2743,7 +2757,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15.70%</t>
+          <t>1.13%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2755,55 +2769,55 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>33.23%</t>
+          <t>17.67%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4268</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.35%</t>
+          <t>23.04%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2815,45 +2829,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4270</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.76%</t>
-        </is>
-      </c>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.54%</t>
+          <t>1.41%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2875,25 +2875,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.88%</t>
+          <t>20.49%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2905,7 +2905,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2913,15 +2913,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.98%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2931,7 +2935,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4276</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -2947,27 +2951,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4277</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.97%</t>
-        </is>
-      </c>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2977,15 +2967,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4306</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2995,7 +2985,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>5.19%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3007,27 +2997,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4312</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.51%</t>
-        </is>
-      </c>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3037,25 +3013,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13.29%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3067,57 +3043,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4319</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.86%</t>
+          <t>41.21%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3127,13 +3089,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4329</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3143,15 +3119,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3161,7 +3137,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.07%</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3173,7 +3149,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3181,7 +3157,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3191,7 +3167,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>36.21%</t>
+          <t>20.49%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3203,28 +3179,568 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14.78%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15.70%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.23%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.35%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>36.76%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>8.54%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.88%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.97%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7.18%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4.51%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13.29%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8.07%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.21%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>4351</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B41" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>5.71%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
